--- a/salida.xlsx
+++ b/salida.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7350" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,20 @@
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
-    <sheet name="6" sheetId="7" r:id="rId7"/>
-    <sheet name="7" sheetId="8" r:id="rId8"/>
-    <sheet name="8" sheetId="9" r:id="rId9"/>
-    <sheet name="9" sheetId="10" r:id="rId10"/>
-    <sheet name="10" sheetId="11" r:id="rId11"/>
-    <sheet name="11" sheetId="12" r:id="rId12"/>
-    <sheet name="12" sheetId="13" r:id="rId13"/>
+    <sheet name="6" sheetId="8" r:id="rId7"/>
+    <sheet name="7" sheetId="9" r:id="rId8"/>
+    <sheet name="8" sheetId="10" r:id="rId9"/>
+    <sheet name="9" sheetId="11" r:id="rId10"/>
+    <sheet name="10" sheetId="12" r:id="rId11"/>
+    <sheet name="11" sheetId="13" r:id="rId12"/>
+    <sheet name="12" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="469">
   <si>
     <t/>
   </si>
@@ -6054,49 +6054,44 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" s="2" t="str">
+        <f>+"(32)"</f>
+        <v>(32)</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>+"(33)"</f>
+        <v>(33)</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>+"(34)"</f>
+        <v>(34)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6109,50 +6104,41 @@
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
@@ -6160,16 +6146,13 @@
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -6177,149 +6160,122 @@
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
@@ -6330,221 +6286,42 @@
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6555,10 +6332,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6567,28 +6344,29 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
+      <c r="B2" s="2" t="str">
+        <f>+"(35)"</f>
+        <v>(35)</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>+"(36)"</f>
+        <v>(36)</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>+"(37)"</f>
+        <v>(37)</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6610,13 +6388,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6624,13 +6402,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6666,13 +6444,13 @@
         <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6680,13 +6458,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6694,13 +6472,13 @@
         <v>254</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6708,27 +6486,27 @@
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6736,27 +6514,27 @@
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>0</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6764,18 +6542,18 @@
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
@@ -6789,179 +6567,39 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>0</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
+      <c r="A20" s="7" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A21" s="7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6972,10 +6610,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6984,28 +6622,29 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
+      <c r="B2" s="2" t="str">
+        <f>+"(38)"</f>
+        <v>(38)</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>+"(39)"</f>
+        <v>(39)</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>+"(40)"</f>
+        <v>(40)</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7027,13 +6666,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7041,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7083,13 +6722,13 @@
         <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7097,13 +6736,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7111,13 +6750,13 @@
         <v>254</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7125,27 +6764,27 @@
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7153,27 +6792,27 @@
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>0</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7181,18 +6820,18 @@
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
@@ -7206,179 +6845,39 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
+      <c r="A20" s="7" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A21" s="7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7389,10 +6888,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7401,28 +6900,29 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
+      <c r="B2" s="2" t="str">
+        <f>+"(41)"</f>
+        <v>(41)</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>+"(42)"</f>
+        <v>(42)</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>+"(43)"</f>
+        <v>(43)</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7444,13 +6944,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7458,13 +6958,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7500,13 +7000,13 @@
         <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7514,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7528,13 +7028,13 @@
         <v>254</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7542,27 +7042,27 @@
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>0</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7570,27 +7070,27 @@
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7598,18 +7098,18 @@
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
@@ -7623,179 +7123,39 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
+      <c r="A20" s="7" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A21" s="7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7806,10 +7166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A30"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7835,9 +7195,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
@@ -8116,22 +7474,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8139,24 +7497,24 @@
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>0</v>
@@ -8176,211 +7534,51 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>0</v>
+      <c r="A20" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>0</v>
+      <c r="A21" s="7" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A22" s="7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -8391,10 +7589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8414,9 +7612,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>50</v>
       </c>
@@ -8471,13 +7667,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -8488,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -8499,7 +7695,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
@@ -8508,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>0</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8522,21 +7718,21 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>0</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8544,18 +7740,18 @@
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>0</v>
@@ -8569,235 +7765,39 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
+      <c r="A14" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
+      <c r="A15" s="7" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A16" s="7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -8808,7 +7808,830 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="A2:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -8816,41 +8639,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" s="2" t="str">
+        <f>+"(19)"</f>
+        <v>(19)</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>+"(20)"</f>
+        <v>(20)</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>+"(21)"</f>
+        <v>(21)</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>+"(22)"</f>
+        <v>(22)</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>+"(23)"</f>
+        <v>(23)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8866,110 +8698,131 @@
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>254</v>
       </c>
@@ -8977,16 +8830,19 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -8994,16 +8850,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>304</v>
       </c>
@@ -9019,8 +8878,11 @@
       <c r="E13" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -9036,8 +8898,11 @@
       <c r="E14" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>309</v>
       </c>
@@ -9053,8 +8918,11 @@
       <c r="E15" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -9070,44 +8938,53 @@
       <c r="E16" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>0</v>
@@ -9121,1435 +8998,57 @@
       <c r="E19" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="B21" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -10560,55 +9059,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F31"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="A17" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" s="2" t="str">
+        <f>+"(24)"</f>
+        <v>(24)</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>+"(25)"</f>
+        <v>(25)</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>+"(26)"</f>
+        <v>(26)</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>+"(27)"</f>
+        <v>(27)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -10624,111 +9119,93 @@
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>368</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -10736,61 +9213,52 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>0</v>
@@ -10804,337 +9272,48 @@
       <c r="E13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -11145,10 +9324,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11157,34 +9336,36 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
+      <c r="B2" s="2" t="str">
+        <f>+"(28)"</f>
+        <v>(28)</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>+"(29)"</f>
+        <v>(29)</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>+"(30)"</f>
+        <v>(30)</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>+"(31)"</f>
+        <v>(31)</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11209,16 +9390,16 @@
         <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -11226,16 +9407,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -11243,7 +9424,7 @@
         <v>165</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
@@ -11260,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -11277,16 +9458,16 @@
         <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11294,16 +9475,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11314,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>0</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11331,30 +9512,30 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11365,30 +9546,30 @@
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>0</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>0</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11396,30 +9577,30 @@
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>0</v>
@@ -11427,215 +9608,45 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>319</v>
+        <v>450</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>318</v>
+        <v>450</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>318</v>
+        <v>450</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="A19" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>0</v>
+      <c r="A20" s="7" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A21" s="7" t="s">
         <v>468</v>
       </c>
     </row>
